--- a/data/hotels_by_city/Dallas/Dallas_shard_60.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_60.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="620">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Saeed M</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Myboo99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r560935096-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Our townhouse was full of toxic mold from the HVAC. We had nowhere to go in a hurry so we went looking for an extended stay type of place. The rates are pretty high at $570 a week but it really is a great place. The staff has been so compassionate &amp; caring about our situation. They gave us additional vouchers for the cupboard. They ask us daily if there’s anything else they can do for us. They’ve offered to help carry in groceries even. And you always get a hi/bye when coming or going. Great customer service. Rooms are clean, mold &amp; allergy free. I know the carpet was all replaced when we checked in it’s very updated as well. More</t>
   </si>
   <si>
+    <t>Amber L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r563241883-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>I booked the Candlewood because I needed a place to stay as I flew into to Texas fot surgery. I was instantly greeted and welcomed by Mildred at the front desk. She was incredibly friendly and professional and showed compassion when I mentioned I was having surgery. She provided me a one bedroom suite that was away from they freeway and in a quiet area. I truly enjoyed her sweet personality and overall kindness.The room was nice! The kitchen drawers were a little loose and the dishwasher had some marks at the bottom but it had a great recliner which I pretty much lived in! I liked that there were pots, pans, a strainer, a water pitcher, silverware, microwave and 2 burners. The tub was low so it wasn't hard to get in and out of. The bed was comfortable. I loved having free laundry. The mini store on the first floor is so conveinant if you're looking for tv dinners, drinks or snacks.I had such a relaxing visit at the Candlewood Suites. It was such a quiet environment for me to rest and heal. More</t>
   </si>
   <si>
+    <t>ANM106</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r560752726-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>drdroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r552514300-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>Hardest part is finding it. Hotel does NOT face Greenville. There is an access road off Greenville that takes you to the Hotel, right next to freeway.Mostly a nice place, love extended stays with kitchen. Wifi was really annoying here. Constantly had to login, and the 'Success' Page was continually coming up.More</t>
   </si>
   <si>
+    <t>marymcd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r514879271-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Alberto F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r513360656-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Clarence O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r491709412-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>I stay at a number of properties as I travel weekly.  If I had a choice I would model all on the business model of the candlewood location at the Park Central location in Dallas, Tx. Management consistently performs at a higher level in customer service, response to any and all issues and making you feel at home.  They have employee turnover, as all companies, but the management level consistently maintains the skill set not only to maintain their business model but raise their expectations to a higher lever.I also stay at the Candelwood location on Westheimer in Houston, Texas.  They also maintain a customer friendly attitude and problem solving skill set. All their employees project the same confidence to all customers.More</t>
   </si>
   <si>
+    <t>Cynthia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r486720251-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Robin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r477254955-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>Great place great staff very quiet however that ended when two teen boys checked in and proceeded to throw earplugs and garbage all over the hallway (I was in room 141 I believe) . They also ransacked the pantry and wrote other room numbers in slips so they didn't have to pay. I mentioned this to managers who removed it immediately but the hallway wasn't cleaned for 24 hours. There was also a homeless gentleman who made himself comfortable in the lobby chair in a daily basis. Not what you want to see upon arrival each time.More</t>
   </si>
   <si>
+    <t>lightzoom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r471396067-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>We stayed at the hotel just for a night and it was a good selection. No issues to complain. Check in was a breeze.The room quality was very good, nice and spacious. We slept well even though it was close to the freeway. And a bit tricky at first getting into the hotel when using a gps device.We will use again when next in the area.Thank you</t>
   </si>
   <si>
+    <t>Justkim11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r462124740-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t>I travel often for business but had never stayed at a Candlewood property. The price when I booked could not be beat. It is definitely different staying in an "extended stay" type hotel, but I am finding that the perks definitely outweigh the deficits when you stay for a week at a time! Chelsea greeted me at the front desk when I arrived and gave me a guided tour on the property. She has been at the desk several nights when I return from work and is always upbeat, kind, and completely helpful. The showers have decent pressure and the convenience of a stove, microwave, (free) wifi, and a mid size refrigerator all add up to me coming back for all of my extended stay needs in the Dallas area.More</t>
   </si>
   <si>
+    <t>Kelly F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r445035169-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -435,6 +474,9 @@
     <t>The lobby is the first impression of a hotel.  I was greeted by someone's dinner trash and a dead bug.  The front desk clerk was not busy and sitting in her chair.  I wanted to turn away and stay somewhere else.More</t>
   </si>
   <si>
+    <t>brucemsn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r443639429-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Johnny G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r441507709-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,6 +513,9 @@
     <t xml:space="preserve">Stayed for an overnight layover. Pleasantly surprised. Very nice Candlewood Suites...in my opinion, the best out of the Candlewood Suites I've stayed at. Nicely decorated, room was in great shape. The front desk clerks were were very friendly and helpful. It was refreshing to be treated so well late at night and early in the morning. </t>
   </si>
   <si>
+    <t>Jim R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r435323007-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -489,6 +537,9 @@
     <t>While having a master bathroom remodeling underway, I needed a break from the mess and noise. I chose Candlewood from previous stays in a different cities. The staff was wonderful, understood my situation and got me a nice room quickly without a reservation. My particular room was an efficiency suite. It was spotless clean, the bath linens seemed to be nearly new if not new. A full size refrigerator, dishwasher, microwave, coffee pot, plus plenty of cooking utensils and place settings were available. The bed was very comfortable and the sheets were of better quality. My stay was a Fri-Sun, the property seemed full, but it was very quiet all weekend. The location is very near I635 and US 75, so access is easy. Parking is very safe, as is the area in my opinion. I may not need to stay away again before my construction is finished, but will certainly choose this location again if I do.More</t>
   </si>
   <si>
+    <t>Julie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r420566539-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>MarieJohnMoonen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r392665796-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -525,6 +579,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Virginia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r385121226-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>I moved here for a month while recovering from surgery. If you need a place to stay for a long time, Candlewood Suites is the place to be. Clean, neat, and oh-so-helpful staff.  Nice room, full size fridge with freezer, microwave, dishwasher, coffeemaker - what else could you need? Also, Shipt will deliver groceries directly to your door here so you don't have to live on pizza. Staff was very responsive to my requests and even swapped out the DVD player.  Can't say enough how great this place is; they even help me with transportation to &amp; from work.</t>
   </si>
   <si>
+    <t>alwaad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r377346060-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -558,6 +618,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>SRHendrix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r365272094-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -576,6 +639,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Graciela M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r362160053-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,6 +657,9 @@
     <t>Everyone was so nice to us. Our room was really nice clean and the price was not at all bad. Also it is located in a good part of town with easy access to the freeway which was a plus for me. I really enjoyed my stay. I would recommend.</t>
   </si>
   <si>
+    <t>marleney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r354448102-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -609,6 +678,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Karlin A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r340188740-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -627,6 +699,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r336744122-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -648,6 +723,9 @@
     <t>This hotel is structured for extended stays.  However, it is great for overnight as well.  In town for a funeral, I planned to be here a few days.  I chose a room with a kitchen area.  I had everything I needed and actually things I did not think to bring.  Everyone during my stay was extremely nice and accommodating.  The room was clean and quiet.  I actually slept better than I had the previous week at home.  :)    They have a lending library with books, videos, games and more.  I really felt like a guest in a home, not a customer in a hotel.  There were several restaurants and a grocery store close by.  I really don't have anything negative to say.  This difficult time could have been more miserable in the wrong hotel.  I'm glad I chose this one!!More</t>
   </si>
   <si>
+    <t>Oscar R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r328991359-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -666,6 +744,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>ROBERT L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r320954085-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -690,6 +771,9 @@
     <t>We travel all the time and at this location we picked because it had hard access and not easy to get to. They advertise security monitored 24/7 at entrance and all over the place. was there 4 weeks of a 10 week stay and they only days we left site to visit our son for 3 days, our trailer was stolen, felt good to know they had video of theft right!!!!  wrong, someone cut my lock and was able to hook up to me trailer hitch that I had special made and is a smaller than standard hitch, well bolt cutters cut pock and stole it only while I was gone. Police report, check, asked for copy of video for cops, none !! filed with their insurance, they denied claim, Candlewood suites stated that they could not see my trailer o that day because camera did not reach that far. I had $ about 4-$5000 stolen inclosed lock trailer. They did noting . Why advertise security 24/7 when that is a false statement.  Do not stay their, no security,  other claims on theft or break ins at this location even inside state no camera working at time of theft.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r310944346-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -717,6 +801,9 @@
     <t>I have no complaints this was a nice room quiet and clean. It had a refrigerator microwave and a cooktop DVD player in the room so it had lots of amenities it would be really nice if you were staying the night because of all that. We would stay here againMore</t>
   </si>
   <si>
+    <t>Apert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r309824708-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -735,6 +822,9 @@
     <t>Our usual hotel was full so we ended up getting a room here for one night. We were worried because the Candlewood we stayed at off 35 wasn't nice and in a questionable area. This one you can see from the freeway. It's right at 635 and greenville but very hard to find the entrance. Best was to get there is exit greenville go north and turn left at the first light past the freeway. It does back up to a cemetery that you have to drive through to get to the entrance.Despite those 2 issues. .the only other were some freeway noise at night.The room was amazing..newly remodled. Beautiful. Comfy bed and nice towels. Free laundry. More</t>
   </si>
   <si>
+    <t>Christy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r307816160-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -759,6 +849,9 @@
     <t>First i had a hard time checking in. The card tht i paid with didnt hv my name on it but its how i paid for the room so she asked for i.d which is normal rt? well, after i showed it to her she asked for an additional card to hold $25???? So we did....i didnt get it. It was way too much to go through only to FINALLY get in the room and the toilet was dirty with the "its clean toilet seal" on it. (Deep sigh)...yes it was gross.More</t>
   </si>
   <si>
+    <t>Kim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r295150438-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -777,6 +870,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Suginami</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r292263042-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -795,6 +891,9 @@
     <t>This is one of the best hotel experiences my family has had. I have never experienced such a positive hotel culture. The staff were exceedingly courteous and helpful and seemed to really enjoy their jobs. Each room has a kitchenette, which is one of the reasons we chose the hotel, and the hotel provided complimentary cooking utensils and other kitchen items. The hotel could have easily taken advantage of the guests and charged for use of these items, but didn't. To the contrary,  if you needed something that was not provided, you could borrow it from the lending locker. There is even an outdoor grill and we barbecued one night, which was really fun. There is a small shop that is run on the honor system. You can purchase food and sundries and fill out a form for later billing. That system of trust is something we have never encountered before. I would not hesitate to recommend Candlewood Suites and look forward to our next stay.More</t>
   </si>
   <si>
+    <t>Vinod W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r274509633-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -813,6 +912,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>noproblemSetx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r271818792-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -831,6 +933,9 @@
     <t>This is out 3 time staying at a Candlewood Suite brand. The Dallas Park Central lived up to the standard I've come to expect. We were warmly greeted at check in. The building exterior &amp; interior appears well maintained. Agreeable it was difficult to locate the entrance and drove around the block to get in.I was pleased with the updated décor, the bed was comfortable. The bathroom was a decent size and clean. The kitchen adequately stocked with dishware for  2 people. Impressed with the Lending Locker where you may borrow items like a blender, slow cooker &amp; DVD.We were in our suite about 10 minutes, when we got a call from the front desk, checking to make sure we everything was in order. The two people at the front desk were very pleasant and struck up a conversation with us.More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r268206426-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -858,6 +963,9 @@
     <t>I've stayed in Candlewood Suites all over the country. This location isn't the best, it's right next to a cemetery. To get into the hotel, you have to turn into a street almost two blocks away, and the address doesn't match up at all to the turn in you have to make.  If you miss is, good luck!  You'll be driving another 5-8 minutes circling back.  My room on the first floor just outside of the office was located just downhill from a major road through town. Looking out the window you're staring at the tires of the cars zooming by. The six nights I was there I kept thinking that one of these nights a car is going to come crashing through the window. Also, as a Platinum Elite I was hoping for an upgrade from the studio. Even if they didn't offer me a free upgrade, I would have paid for it. They just said, "sorry, we have a lot of long-term guests." As far as the trash goes - they leave a rolling dumpster in the hallway AT ALL TIMES. Every time I opened my door I got to see (and smell) that rolling garbage pile.More</t>
   </si>
   <si>
+    <t>Tish L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r262767750-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -876,6 +984,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>joel b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r255691291-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1005,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Melanie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r253059131-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1023,9 @@
     <t xml:space="preserve">I stayed here for the past 3 months while on a work assignment in Dallas. Convenient location and wonderful and helpful staff. Rooms and building very clean and safe. Special recognition to Senedu, Dois, Taylor and Christie for making my stay great. Having onsite free laundry a plus. Would definitely stay here again any time! </t>
   </si>
   <si>
+    <t>mugmarine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r251538267-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1041,9 @@
     <t>Stayed here on business, very clean and great place for the money! Id reccommend this place for sure! Clean and great loacation. I will be back soon! Nice folks and best place in the area for business!</t>
   </si>
   <si>
+    <t>GerardoFoodie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r249233350-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1062,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>QueenT5456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r245563581-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1086,9 @@
     <t>I stayed at this hotel a couple of years ago for my birthday.  I chose to visit Dallas again this year as a shopping trip for my birthday.  I was well pleased with the hotel.  I had a huge two room suite.  Unlike a lot of other hotels where I've stayed the rooms in this hotel are well lit.  There is plenty of lighting in the bathroom for applying makeup.  As a matter of fact the whole suite has plenty of lighting which I really appreciate.  The dining area was equipped well.  The room was nice and clean and the bed very comfortable.The Candlewood Cupboard was well stocked.  Even though I did not use the fitness center it looked very nice.Needless to say, this is my go to place to stay when in the area.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r243644612-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1107,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>ccbbb23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r241164553-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1128,9 @@
     <t>This place is excellent! We have stayed at many 5 star locations throughout the world, yet this place, for its price, is definitely 5 star! The location is very safe; its location is somewhat remote even though it is in the middle of everywhere. The environment is very clean. The room was squeaky clean. The offerings were complete and thorough: snacks, supplies, workout, BBQ area, thorough parking, lending library, lending DVD library, lending game selection, lending equipment, .....My wife has asthma, and the non-smoking room was completely smoke free. The linen, sheets and towels, were very clean and had no powerful odors.But what puts this place on top of the top is the staff. Senedu made certain everything was perfect. I wish every hotel and inn had staff that worked so hard to make one feel so comfortable.More</t>
   </si>
   <si>
+    <t>ffapiggirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r231893579-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1152,9 @@
     <t>it was close to 10 pm when i arrived for check in. the lady at the front desk was amazing. she gave my list of places to eat that were still open. the room was so pretty. VERY clean, they even had taken the time to clean around the back side of the toilet. this normally is missed. a reasonable pet deposit. had everything i thought i would need. my only complaint was there was not a pump hand soap. It took me being there 2 nights to come up with that complaint. the water pressure was good, and the water got warm very fast. the wifi could be a bit spotty but that was during pike hours of use. i will book this hotel again on my next stay. the sheets were soft, and they gave me at least 5 pillows. house keeping comes in once a week, for long stays. so you have to ask the desk for towels. there is a grill, and you can borrow the tools to use it. even with them saying i might hear them remodeling i never heard much from the other rooms. i stayed on the first floor. i was right in the middle of both exits. I felt more at home here then even at my apartment. i will be back.More</t>
   </si>
   <si>
+    <t>JWC75604</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r224172985-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1176,9 @@
     <t>I had stayed at this hotel several years ago, but it has been renovated and redecorated and has the appearance of a more expensive place. There were enough pans and utensils for me to cook a dinner for two. I used the dishwasher and the stove and both worked very well. The bed was comfortable and there were two chairs and a counter low enough to use for dining. The room was quiet, the wifi and plug in internet access both worked well. There was no smell to the room and all the amenities, such as soap, dishwashing liquid and powder for the dishwasher and paper towel were present and new.  I did book online at the hotel website, so did not get the best price, but have no complaints. I will stay here again, when I am in the area.More</t>
   </si>
   <si>
+    <t>Jen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r220695802-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1194,9 @@
     <t>We booked online for a very good price. The rooms were clean with lots of features.  The only thi g is that it can be a little confusing to find but that's the only complaint.  The staff was very friendly and we ended up having a bad day and lost our keys. They let us stay until the locksmith arrived with no extra charge. They really helped us out! I would Definitely stay here again!</t>
   </si>
   <si>
+    <t>JLS_Australia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r209826701-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1218,9 @@
     <t>I only stayed one night but it was a great place. My room was large with a wrap around desk along one wall with a kitchen (including diahwasher, full size fridge, microwave and hot plates) also. It was only a 15 minute drive to down Dallas.The hotel also offers free wifi, free parking and free laundry facilities (do ur washing early,  from 5pm everyone has the same idea) and a small convenient store.  Otherwise there was a few restaurants on both sides of the hotel.The only think I found frustrating was the entrance.  You need to turn left at Amberton parkway road with the cemetery on the corner. There was no mention of this on their website or on my hotel voucher.More</t>
   </si>
   <si>
+    <t>Carla U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r209403177-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1236,9 @@
     <t xml:space="preserve">I stayed at this hotel for a while and it is a clean and safe pet friendly hotel.  Staff is great, there is no noises or cigaret smell in the room or hallways. The only thing is that the rooms are a little too small for two and there is only one chair on it. However,  I will definitely recommend it!  </t>
   </si>
   <si>
+    <t>CMcCollum2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r208593652-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1263,9 @@
     <t>no smoking room smells like cigarette smoke.  Getting a headache! UGH!  I called to verify that this  was a no smoking room and front desk informed that it was no smoking, but that the entire floor above me is smoking!  Don't know if the smoke from upstairs is seeping into my room or not, but I do smell cigarette smoke.  When I arrived there was a bad smell like sewage or something in the first floor (main floor) of the hotel. :(More</t>
   </si>
   <si>
+    <t>Kate T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r207543224-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1284,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>seaski42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r205982946-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1329,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>David P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r199666858-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1350,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>SWVagabond</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r199296232-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1380,9 @@
     <t>Although this facility is made for extended stays, we stayed for just one night. Service was excellent. The rooms were roomy and clean with ample desk space for the business traveler.Unfortunately, we were given a room on the freeway side of the building at street level. Throughout the night the traffic noise was just shy of unbearable.More</t>
   </si>
   <si>
+    <t>uli1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r196283170-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1398,9 @@
     <t>Christie Fuqua White and her staff made my stay a memorable one. Smiles and happiness greet you the time you enter this Hotel and it carries through the whole stay. After a terrible check-in  at the Candelwood suites in Texarkana this stay has restored my enthusiasm for this chain. the renovation is absolutely beautiful and comfortable . Huge fridge w ice-maker and a dishwasher and a huge LED TV !!!!!!! This might be bad for business as you don't feel like leaving the room.. 12Mbps lightning fast internet  Highly recommended</t>
   </si>
   <si>
+    <t>WeLikeTravellingALot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r193855303-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1419,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Margie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r190763092-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1443,9 @@
     <t>The place is clean and new and modern. The staff is accommodating in every way. Everything I asked for or needed was provided immediately. The rate was great. The free laundry service and "honor system" marketplace were added conveniences I never expected. I have never been more impressed with a hotel in my 30 years on the road. I go out of my way now to stay at this brand in different states because of the  exceptional experience  with staff and management at the Dallas location. The bed quality was excellent also, and I always had a great sleep-rare in a hotel. So great to see a Company actually executing great customer service these days!More</t>
   </si>
   <si>
+    <t>Tahiri1321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r185408933-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1461,9 @@
     <t>This is a basic hotel to stay for one or more nights, if you're not looking for luxury and will just use it to spend the night. The staff was very polite. Very well located. Would stay there again in the future.</t>
   </si>
   <si>
+    <t>Shannon R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r181887296-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1485,9 @@
     <t>I booked this hotel and got a great rate.  I was driving up from Houston and knew that I was going to be extremely late checking in.  I called and let them know.  When I got to the hotel, the front desk was wonderful.  I was coming up to check out the state fair and to spend a bit of time in Dallas and he gave me some great suggestions and ideas.  My suite was great, very pretty, modern and the bed was extremely comfortable.  The bathroom was VERY clean.  I liked having a kitchenette given I had brought some water and stuff to take to the fair so it was nice to freeze a few bottles.  The location right off LBJ was great, however, like one of the other reviews said, getting in and out and the signage is a bit odd.  I was a bit leery that my room was on the first floor, but I felt extremely safe and comfortable.  This hotel would be great for a couple, business traveler or probably a solo traveler.  I am not sure its set up really for more then 1 or 2 people.  I stayed 2 nights and would certainly stay here again.More</t>
   </si>
   <si>
+    <t>Keya T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r181694889-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1503,9 @@
     <t>I was a little leery about staying in a 2 star hotel but much to my surprise, my room was updated and clean.  I took advantage of the kitchen and the DVD.  I would stay there again if traveling alone.  The only downsides are: no daily maid service and only one bed.  I'm traveling to Dallas again next month but had to book another hotel because I'm traveling with a friend and need an additional bed.</t>
   </si>
   <si>
+    <t>dagongster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r181014589-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1530,9 @@
     <t>Had a one-night stay here over the weekend. The room itself looked renovated and was better than I expected. However, there were a few things that made me wish I booked elsewhere.1. The entrance to the hotel is deceiving. The official address is on Greenville, but all GPS devices won't know that you actually have to turn in on Amberton. There is no direct entrance off Greenville, and definitely none on LBJ. If you miss that, you'll end up making a big circle. It's not a huge deal, but decently inconvenient.2. There is no business center here, so if you need to use a computer, you have to use the one at the front desk. Even worse is that the internet speed is e...x...t...r...e...m...e...l...y... slow. Think dial-up-from-1995 slow. It was amazing, and terrible.3. The gym and "market" areas were pretty much in one room, which is a bit awkward. Also, the gym is poorly equipped.Beyond that, the bed was okay (not uncomfortable, not super comfortable), and the water pressure was pretty weak. Toiletries are handed out at check-in, and the shampoo/conditioner are in hard-to-open pouches instead of bottles.I got a really good rate so I guess I shouldn't complain too much. Still, if only everything matched the quality of the room renovation itself, then this could be a solid hotel choice.More</t>
   </si>
   <si>
+    <t>Monica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r178362485-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1560,9 @@
     <t>I booked thru Priceline and ended up with a hotel that was out of rooms. So Priceline had to find me another hotel. I ended up at Candlewood Suites off Greenville Ave. I wasn't prepared for this hotel, seeing as my budget wasn't prepared to pay for incidentals. I am a member of the rewards program. Seeing how it was booked thru pricline I wasn't able to receive any points for my stay. Upon check in I told the woman at the desk, that I only had a little bit of cash at that time. That I could pay for incidentals later in the evening. No they had to have it then. Then I aske dif they could just turn the incidentals off. Which some hotels can and will. They all can if they want to.Again asked and harassed about documentation concerning my disability. I travel with my service animal and know that by Law .That there is no documentation to show. However there are certificates of completion by a trainier. But there is no official document given by our Government. In a nut shell. The property it self was nice and my room was comfortable. The management and staff wasn't really inviting and welcoming. Thats' it.More</t>
   </si>
   <si>
+    <t>FREQUENTSTAY2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r171925489-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1398,6 +1584,9 @@
     <t>As a person who works from home, I wanted to get away for father's day by myself in which the family supported my decision. As a result I wanted to stay in at a hotel that would be relaxing and peaceful. I rarely stay at a Candlewood Suites property (some not so nice experience), but the pricing and location met my last minute need. I must admit, I was little more than hesitant. But Wow! My expectation of this property was exceeded! I briefly left the property only once during my stay. The contemporary look and feel of this property was outstanding. The bed was sooooooo (misspelled on purpose) comfortable. The ambiance of the room really contributed to the moment of my reading the wonderful father's day cards from my family. Last but not least, the staff was wonderful. Dewana was so professional and pleasant. I highly recommend staying at this property.  The only negative: It is hard to find, signage visibility is an issue.More</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r171441171-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1602,9 @@
     <t>You wonder if you are really at the hotel when you drive up.  It looks like you are going in the back door.  This must be a high crime area because you have to ring a buzzer to contact the front desk.  Everything was locked up tight in the middle of the day.  The room was nice, but the fan on the AC never shut off even when it reached the correct temperature.  Most hotels of this caliber provide breakfast in the morning.  Not this place.  Unless nothing else is available will not stay here again.  Many better options in the Dallas area.</t>
   </si>
   <si>
+    <t>willdev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r169991584-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1626,9 @@
     <t>I travel internationally, staying in all types of hotels; from 3 star european BBs to 6 star Intercontinental hotels. And this is one of my favorite properties at which to stay.The staff, from front desk to back office are some of the best that I have experienced. In fact, they put a lot of the 5-6 star properties to shame.  Considerate, courteous, proactive to my needs, they go the extra mile to provide the best experience that they can.I have been staying here on and off since 2010, and I have seen CWS build an exceptional property and team.  Kudos to her.  Every time, my room is clean, bed is clean, amenities fully functional.More</t>
   </si>
   <si>
+    <t>Salsamaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r162315722-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1656,9 @@
     <t>We used this hotel as we needed to be close to the medical facility but found it was the worst possible place to go. Huge roach under the dishwasher, quarter sized spider in the bathroom. Everything very sticky and old decor, need to clean the carpets and upholstery. Daughter stayed on the pull out couch, I think she had the more comfortable mattress although she did have a very stained blanket as well as stained curtains. Sounded like we were sleeping in the pits at the raceway, now we know why they gave us ONE PAIR of ear plugs. Did like the kitchen set up, huge pantry, large frig, no oven but that was okay, they have two grills outside to use. The hallways smelled like cigarette smoke, in a non-smoking hotel. Had a creeper in the laundry room trying to hold conversations with the women who came in. Wondering if he was a homeless drunk, slurred his words and was still in there at 0300!The icing on the cake was they charged my debit card once but also held another $329 for a few days AFTER they charged my card in memo mode. Had to have my bank talk to them to make them release the funds back to my account! Would NOT use them ever again, would rather sleep in my car in a hospital parking lot!More</t>
   </si>
   <si>
+    <t>73Henry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r155802513-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1686,9 @@
     <t>The room looked nice upon arrival. Then morning came and I could see what my room really looked like. The bed sheets were disgusting. The pillows were covered numerous times with separate pillow cases and not washed. There were drool stains soaking threw layers and layers of cases. A huge yellow stain over the edge of one of the pillows. It had been covered with SIX different cases. I stripped the entire bed to uncover hair on the pad covering the mattress. There were dark black hairs everywhere. I requested a vacuum to clean the room myself. I bought several sanitizing agents to clean the restroom and anything else I could touch. The carpet had toe nail clippings left on the floor. The kitchen utensils were dirty and that was the first thing I noticed. Thank The Lord that this place has all the HBOs and new bathrooms, because if it didn't, it would be over priced and totally not worth staying. Not to mention its on the East side of hwy 75 and everything is NOT as nice on that side of the hwy,More</t>
   </si>
   <si>
+    <t>ATLGAPeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r151685738-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1710,9 @@
     <t>This hotel is conveniently located in Dallas with easy access to the Galleria Mall which is not too far away. The airport is about a 25-30 minute drive without traffic. You can get to most places in Dallas in less than 20 minutes. The staff here are very friendly and provide wonderful customer service. Everyone was really nice and helpful from the front desk to housekeeping.The rooms have been renovated recently and have nice flat screen TVs with remodeled bath/kitchen. There is a restland nearby across the way in the back, but didn't bother me at all. If you are the spooky type ask for a front facing room that has the street view.The hotel is right by the freeway so this is a bonus for quick and easy access to get to wherever you are going quickly. There are several chain restaurants in the immediate vicinity. I would classify the area as business/industrial/residential so it's a pretty quiet area overall and not too far away from the action of Uptown.More</t>
   </si>
   <si>
+    <t>Judy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r139732899-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1740,9 @@
     <t>We needed a hotel close to a Medical facility where we were having tests done, and Candlewood was their suggestion.  We have stayed at some very nice hotels over the years, but none with a staff as considerate and kind as Candlewood.  They advertise weekly room cleaning, but at the end of each grueling day at the hospital, our room was cleaned and beds were made.  It was great as we had to leave the hotel at 6a.m. each day, and not return until late afternoon.Mind you, this is not the Ritz, but with a superior comfort level, convenience and lovely people, it made an unpleasant visit a nice place to come home to.  I should have taken names, because everyone was so nice, but the first night there, David, was a huge help in helping us get settled.  Thank you David and everyone at Candlewood for making out experience way better than expected.More</t>
   </si>
   <si>
+    <t>Dheeraj S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r136421425-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1557,6 +1764,9 @@
     <t>I stayed in this hotel from Nov'11 till March'12 with my wife and 2 year old son. The place was renovated during this period and it was a bit noisy. But thats was very well managed by the hotel staff. The new interior's are neat and the kitchen is very good.  The best part of this hotel is its very friendly and a caring staff. They will make you feel very comfortable and at home. The General Manager ( Christie ) is very nice lady and extremely professional and very customer focused. She is supported by a equally friendly staff (Dewana. Kim Moreland Jr from the front desk).  The only negative about this hotel is, it is facing a Restland..(so those folks who are scared of graves and ghost, opt for road facing rooms rather than the parking :).I addition if you plan to stay for a longer duration (for over 2 months) conat the hotesl sales director ( Mercedes) . She may give you a good deal. ( i got a very good rate :) )I am presently staying in another Candlewood Suites hotel in Irving and I can comapre ans say that Candlewood Suites , Green ville avenue location and 100% time better than this one.The people who work in the hotel makes the difference !I would highly recommend this hotel ...excellent !!Dheeraj SharmaMore</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r126016358-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1575,6 +1785,9 @@
     <t>My wife and I were needing to stay in this area and had heard that this hotel had just went through a major renovation. Boy have they! The place looks like a new hotel! You cant beat it for the money. Plus you get a kitchen to boot. The decor and colors are great. All the staff were very helpful and friendly. The only thing missing are the flatscreen t.v.'s. And they should be installed by the end of March I was told. I would highly recomend this property. Throw in the free parking and internet and your set. They also have there cupboard where you can get a vast array of food, snacks, and items you may have forgotten. Good job Candlewood!More</t>
   </si>
   <si>
+    <t>Lisciandro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r125511851-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1602,6 +1815,9 @@
     <t>I've been at this hotel for two weeks. The suite was clean and reasonably new with a fully equipped kitchen (silverware, a few cooking tools, microwave and a full fridge) I've been very happy to cook my food myself and enjoy the intimacy of my own room.Suites are serviced once a week.Front staff is really caring and ready to help you.There's a (real) high speed wi-fi accessMy biggest complain is about noises incoming from the nearby roads. The hotel is exactly at one of the junctions of the LBJ freeway so there's traffic 24/7 and this was a little disturbing especially during the night.At the time of writing (March2012) there some renovations in progress (room decors, installation of flat TV screens, etc.).More</t>
   </si>
   <si>
+    <t>franklinmilford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r125135890-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1620,6 +1836,9 @@
     <t>The room I had was fully renovated, new everything. Modern black cabinets in bath and kitchen with glass fronts, very modern looking. Full size kitchen which is always a plus for the long stay, not eating off styrofoam every night. there are 2 main complaints for this hotel...#1 being no business center. The front desk staff will do all printing,faxing,etc.,whatever you need, but sometimes you just need a keyboard to do work. They will turn their board around so you can use it, but when they are busy this becomes an issue. No one ever complained or looked like it was an inconvenience, but you know it is. #2-the air conditioning. The maint. dept. put in 3 seperate units, but none would actually chill the room. Thank goodness it was very cold outand the windows did open allowing me to control the air! There is the standard "convenience store" cuboard which is great for soda,snacks,etc., on the honor system,along with endless coffee since there is no breakfast offered. When reno is complete I feel this place will have a little more of the upscale "luxury" feel they are hoping for in an extended stay facility. I would have no problem stayin here again when in the area. Note-if you are using GPS, it will be hard to find the first time, as driveway into facllity is one block away from address, through a giant graveyard. A great little find as...The room I had was fully renovated, new everything. Modern black cabinets in bath and kitchen with glass fronts, very modern looking. Full size kitchen which is always a plus for the long stay, not eating off styrofoam every night. there are 2 main complaints for this hotel...#1 being no business center. The front desk staff will do all printing,faxing,etc.,whatever you need, but sometimes you just need a keyboard to do work. They will turn their board around so you can use it, but when they are busy this becomes an issue. No one ever complained or looked like it was an inconvenience, but you know it is. #2-the air conditioning. The maint. dept. put in 3 seperate units, but none would actually chill the room. Thank goodness it was very cold outand the windows did open allowing me to control the air! There is the standard "convenience store" cuboard which is great for soda,snacks,etc., on the honor system,along with endless coffee since there is no breakfast offered. When reno is complete I feel this place will have a little more of the upscale "luxury" feel they are hoping for in an extended stay facility. I would have no problem stayin here again when in the area. Note-if you are using GPS, it will be hard to find the first time, as driveway into facllity is one block away from address, through a giant graveyard. A great little find as soon as the air works! Weekly maid service, so keep your room clean and it will be like a second home!!!More</t>
   </si>
   <si>
+    <t>Girlonthego2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r118089711-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1636,6 +1855,9 @@
   </si>
   <si>
     <t>September 2011</t>
+  </si>
+  <si>
+    <t>MichaelVegetarian</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r48412589-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -2158,43 +2380,47 @@
       <c r="A2" t="n">
         <v>37495</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>124074</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2212,50 +2438,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37495</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124075</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2269,50 +2499,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37495</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>22470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2326,50 +2560,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37495</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124076</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2387,50 +2625,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37495</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124077</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2448,56 +2690,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37495</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>124078</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2517,50 +2763,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37495</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>124079</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2574,50 +2824,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37495</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124080</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2635,50 +2889,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37495</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>11440</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2696,50 +2954,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37495</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>97583</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2751,56 +3013,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37495</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124081</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2818,50 +3084,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37495</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124082</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2875,41 +3145,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37495</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>16761</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -2926,56 +3200,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37495</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>124083</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2989,50 +3267,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37495</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>48411</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3046,50 +3328,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37495</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>602</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3109,50 +3395,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37495</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>29725</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3166,50 +3456,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37495</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124084</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3229,50 +3523,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37495</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>29423</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3290,50 +3588,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37495</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124085</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3347,50 +3649,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37495</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124086</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3404,50 +3710,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37495</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124087</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3461,50 +3771,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37495</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124088</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3518,50 +3832,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37495</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124089</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3581,50 +3899,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37495</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>408</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3638,50 +3960,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37495</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>43930</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3701,41 +4027,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37495</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124090</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
@@ -3752,56 +4082,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37495</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3813,56 +4147,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37495</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>111963</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3876,50 +4214,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37495</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124091</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3931,56 +4273,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37495</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>15668</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4000,41 +4346,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37495</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124092</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -4053,50 +4403,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37495</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124093</v>
+      </c>
+      <c r="C34" t="s">
+        <v>291</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4110,50 +4464,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37495</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124094</v>
+      </c>
+      <c r="C35" t="s">
+        <v>298</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4173,50 +4531,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37495</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>967</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4230,56 +4592,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="X36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37495</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>65302</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4299,50 +4665,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37495</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124095</v>
+      </c>
+      <c r="C38" t="s">
+        <v>322</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4362,50 +4732,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37495</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>27877</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="J39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4419,41 +4793,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37495</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124096</v>
+      </c>
+      <c r="C40" t="s">
+        <v>335</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="J40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="K40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -4482,50 +4860,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37495</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124097</v>
+      </c>
+      <c r="C41" t="s">
+        <v>341</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="J41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4539,50 +4921,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37495</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124098</v>
+      </c>
+      <c r="C42" t="s">
+        <v>348</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="J42" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="K42" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4602,50 +4988,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37495</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>304</v>
+      </c>
+      <c r="C43" t="s">
+        <v>356</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J43" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="K43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4663,50 +5053,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37495</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124099</v>
+      </c>
+      <c r="C44" t="s">
+        <v>363</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="J44" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="K44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4726,50 +5120,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37495</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>370</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="J45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="K45" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4787,50 +5185,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37495</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>378</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="J46" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="K46" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="O46" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4850,41 +5252,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37495</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>47867</v>
+      </c>
+      <c r="C47" t="s">
+        <v>386</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="J47" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="K47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -4913,50 +5319,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37495</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>392</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="J48" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="K48" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="O48" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4970,41 +5380,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37495</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>400</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="J49" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="K49" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5033,50 +5447,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37495</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>406</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="J50" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="K50" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="O50" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5088,56 +5506,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="X50" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="Y50" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37495</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>26414</v>
+      </c>
+      <c r="C51" t="s">
+        <v>415</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="J51" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="K51" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="O51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5161,50 +5583,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37495</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>124105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>422</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="J52" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="K52" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5216,13 +5642,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="X52" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="Y52" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53">
@@ -5235,37 +5661,37 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="J53" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="K53" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="O53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5289,50 +5715,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37495</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>709</v>
+      </c>
+      <c r="C54" t="s">
+        <v>437</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="J54" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="K54" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="O54" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5356,50 +5786,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37495</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>124106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>444</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J55" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="K55" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5421,56 +5855,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="X55" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="Y55" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37495</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>48416</v>
+      </c>
+      <c r="C56" t="s">
+        <v>454</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="J56" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5494,50 +5932,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37495</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>460</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="J57" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="K57" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="O57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5557,50 +5999,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37495</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>79901</v>
+      </c>
+      <c r="C58" t="s">
+        <v>467</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J58" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="K58" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="L58" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5624,50 +6070,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37495</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>124108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>475</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="J59" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="K59" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="L59" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5691,50 +6141,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37495</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>16962</v>
+      </c>
+      <c r="C60" t="s">
+        <v>481</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="J60" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="K60" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="L60" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="O60" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5758,50 +6212,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37495</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>489</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="J61" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="K61" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="L61" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="O61" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5825,50 +6283,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37495</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>124110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>495</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="J62" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="K62" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="L62" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="O62" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -5890,56 +6352,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="X62" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="Y62" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37495</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>15596</v>
+      </c>
+      <c r="C63" t="s">
+        <v>504</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="J63" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="K63" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="L63" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -5961,56 +6427,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="X63" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="Y63" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37495</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>514</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="J64" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="K64" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="L64" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="O64" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6034,50 +6504,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37495</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C65" t="s">
+        <v>522</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
       <c r="J65" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="K65" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="L65" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="O65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6101,50 +6575,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37495</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>528</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="J66" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="K66" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="L66" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6168,50 +6646,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37495</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>536</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="J67" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="K67" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="L67" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6233,56 +6715,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="X67" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="Y67" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37495</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>124114</v>
+      </c>
+      <c r="C68" t="s">
+        <v>546</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="J68" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="K68" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="L68" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6304,56 +6790,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="X68" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="Y68" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37495</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>28739</v>
+      </c>
+      <c r="C69" t="s">
+        <v>556</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="J69" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="K69" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="L69" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="O69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6375,56 +6865,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="X69" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="Y69" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37495</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C70" t="s">
+        <v>564</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="J70" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="K70" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="L70" t="s">
-        <v>501</v>
+        <v>569</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6446,56 +6940,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="X70" t="s">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="Y70" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37495</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>124115</v>
+      </c>
+      <c r="C71" t="s">
+        <v>574</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="J71" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="K71" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="L71" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6519,50 +7017,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37495</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C72" t="s">
+        <v>582</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="J72" t="s">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="K72" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="L72" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="O72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6584,56 +7086,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="X72" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="Y72" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37495</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>124116</v>
+      </c>
+      <c r="C73" t="s">
+        <v>589</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>519</v>
+        <v>590</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>520</v>
+        <v>591</v>
       </c>
       <c r="J73" t="s">
-        <v>521</v>
+        <v>592</v>
       </c>
       <c r="K73" t="s">
-        <v>522</v>
+        <v>593</v>
       </c>
       <c r="L73" t="s">
-        <v>523</v>
+        <v>594</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6655,56 +7161,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="X73" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="Y73" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37495</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>70965</v>
+      </c>
+      <c r="C74" t="s">
+        <v>599</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="J74" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="K74" t="s">
-        <v>531</v>
+        <v>603</v>
       </c>
       <c r="L74" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6728,50 +7238,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>533</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37495</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>124117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>606</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="J75" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="K75" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="L75" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -6793,50 +7307,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37495</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>124118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>613</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>540</v>
+        <v>614</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>541</v>
+        <v>615</v>
       </c>
       <c r="J76" t="s">
-        <v>542</v>
+        <v>616</v>
       </c>
       <c r="K76" t="s">
-        <v>543</v>
+        <v>617</v>
       </c>
       <c r="L76" t="s">
-        <v>544</v>
+        <v>618</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -6860,7 +7378,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>544</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_60.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_60.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Saeed M</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r588665084-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109039</t>
+  </si>
+  <si>
+    <t>588665084</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>First visit was great came back for second</t>
+  </si>
+  <si>
+    <t>In Dallas for work and stayed for two weeks. It was very pleasant and convenient with the in room kitchens and full size laundry room with multiple machines. Had to return back a week later for work again and chose to stay here!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r586225801-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>586225801</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Our favorite</t>
+  </si>
+  <si>
+    <t>We have spent months at the Candlewood over the last five years and it is by far our favorite. The staff is extraordinarily helpful and friendly, taking efforts to help us with our special requests. The building and individual rooms are kept very clean and well maintained. You cannot imagine how rare this is! The pantry is well stocked, the laundry free and there is always hot coffee available. We look forward to returning again and again. It's a real treat to have the staff consider us "home" in the same way we feel while there.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r578364483-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>109039</t>
-  </si>
-  <si>
     <t>578364483</t>
   </si>
   <si>
@@ -177,13 +216,25 @@
     <t>The hotel has clean rooms and friendly staff. It does not offer breakfast, however coffee is available 24-hours a day. It has a small gym but I'm not sure about pool. The hotel has a good access to the highways and considering its cleanness, the price is fair. However, there is a cemetery in its vicinity (not observable from the hotel rooms or parking), if it matters to you.</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Myboo99</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r563241883-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>563241883</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 days for surgery nearby</t>
+  </si>
+  <si>
+    <t>I booked the Candlewood because I needed a place to stay as I flew into to Texas fot surgery. I was instantly greeted and welcomed by Mildred at the front desk. She was incredibly friendly and professional and showed compassion when I mentioned I was having surgery. She provided me a one bedroom suite that was away from they freeway and in a quiet area. I truly enjoyed her sweet personality and overall kindness.The room was nice! The kitchen drawers were a little loose and the dishwasher had some marks at the bottom but it had a great recliner which I pretty much lived in! I liked that there were pots, pans, a strainer, a water pitcher, silverware, microwave and 2 burners. The tub was low so it wasn't hard to get in and out of. The bed was comfortable. I loved having free laundry. The mini store on the first floor is so conveinant if you're looking for tv dinners, drinks or snacks.I had such a relaxing visit at the Candlewood Suites. It was such a quiet environment for me to rest and heal. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I booked the Candlewood because I needed a place to stay as I flew into to Texas fot surgery. I was instantly greeted and welcomed by Mildred at the front desk. She was incredibly friendly and professional and showed compassion when I mentioned I was having surgery. She provided me a one bedroom suite that was away from they freeway and in a quiet area. I truly enjoyed her sweet personality and overall kindness.The room was nice! The kitchen drawers were a little loose and the dishwasher had some marks at the bottom but it had a great recliner which I pretty much lived in! I liked that there were pots, pans, a strainer, a water pitcher, silverware, microwave and 2 burners. The tub was low so it wasn't hard to get in and out of. The bed was comfortable. I loved having free laundry. The mini store on the first floor is so conveinant if you're looking for tv dinners, drinks or snacks.I had such a relaxing visit at the Candlewood Suites. It was such a quiet environment for me to rest and heal. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r560935096-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -201,42 +252,12 @@
     <t>Our townhouse was full of toxic mold from the HVAC. We had nowhere to go in a hurry so we went looking for an extended stay type of place. The rates are pretty high at $570 a week but it really is a great place. The staff has been so compassionate &amp; caring about our situation. They gave us additional vouchers for the cupboard. They ask us daily if there’s anything else they can do for us. They’ve offered to help carry in groceries even. And you always get a hi/bye when coming or going. Great customer service. Rooms are clean, mold &amp; allergy free. I know the carpet was all replaced when we checked in it’s very updated as well. MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>Our townhouse was full of toxic mold from the HVAC. We had nowhere to go in a hurry so we went looking for an extended stay type of place. The rates are pretty high at $570 a week but it really is a great place. The staff has been so compassionate &amp; caring about our situation. They gave us additional vouchers for the cupboard. They ask us daily if there’s anything else they can do for us. They’ve offered to help carry in groceries even. And you always get a hi/bye when coming or going. Great customer service. Rooms are clean, mold &amp; allergy free. I know the carpet was all replaced when we checked in it’s very updated as well. More</t>
   </si>
   <si>
-    <t>Amber L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r563241883-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>563241883</t>
-  </si>
-  <si>
-    <t>02/27/2018</t>
-  </si>
-  <si>
-    <t>Stayed here for 6 days for surgery nearby</t>
-  </si>
-  <si>
-    <t>I booked the Candlewood because I needed a place to stay as I flew into to Texas fot surgery. I was instantly greeted and welcomed by Mildred at the front desk. She was incredibly friendly and professional and showed compassion when I mentioned I was having surgery. She provided me a one bedroom suite that was away from they freeway and in a quiet area. I truly enjoyed her sweet personality and overall kindness.The room was nice! The kitchen drawers were a little loose and the dishwasher had some marks at the bottom but it had a great recliner which I pretty much lived in! I liked that there were pots, pans, a strainer, a water pitcher, silverware, microwave and 2 burners. The tub was low so it wasn't hard to get in and out of. The bed was comfortable. I loved having free laundry. The mini store on the first floor is so conveinant if you're looking for tv dinners, drinks or snacks.I had such a relaxing visit at the Candlewood Suites. It was such a quiet environment for me to rest and heal. MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>I booked the Candlewood because I needed a place to stay as I flew into to Texas fot surgery. I was instantly greeted and welcomed by Mildred at the front desk. She was incredibly friendly and professional and showed compassion when I mentioned I was having surgery. She provided me a one bedroom suite that was away from they freeway and in a quiet area. I truly enjoyed her sweet personality and overall kindness.The room was nice! The kitchen drawers were a little loose and the dishwasher had some marks at the bottom but it had a great recliner which I pretty much lived in! I liked that there were pots, pans, a strainer, a water pitcher, silverware, microwave and 2 burners. The tub was low so it wasn't hard to get in and out of. The bed was comfortable. I loved having free laundry. The mini store on the first floor is so conveinant if you're looking for tv dinners, drinks or snacks.I had such a relaxing visit at the Candlewood Suites. It was such a quiet environment for me to rest and heal. More</t>
-  </si>
-  <si>
-    <t>ANM106</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r560752726-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,9 +276,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>drdroad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r552514300-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,9 +306,6 @@
     <t>Hardest part is finding it. Hotel does NOT face Greenville. There is an access road off Greenville that takes you to the Hotel, right next to freeway.Mostly a nice place, love extended stays with kitchen. Wifi was really annoying here. Constantly had to login, and the 'Success' Page was continually coming up.More</t>
   </si>
   <si>
-    <t>marymcd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r514879271-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -309,9 +324,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>Alberto F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r513360656-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -330,9 +342,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Clarence O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r491709412-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -351,9 +360,6 @@
     <t>I stay at a number of properties as I travel weekly.  If I had a choice I would model all on the business model of the candlewood location at the Park Central location in Dallas, Tx. Management consistently performs at a higher level in customer service, response to any and all issues and making you feel at home.  They have employee turnover, as all companies, but the management level consistently maintains the skill set not only to maintain their business model but raise their expectations to a higher lever.I also stay at the Candelwood location on Westheimer in Houston, Texas.  They also maintain a customer friendly attitude and problem solving skill set. All their employees project the same confidence to all customers.More</t>
   </si>
   <si>
-    <t>Cynthia R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r486720251-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,9 +381,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Robin J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r477254955-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -405,9 +408,6 @@
     <t>Great place great staff very quiet however that ended when two teen boys checked in and proceeded to throw earplugs and garbage all over the hallway (I was in room 141 I believe) . They also ransacked the pantry and wrote other room numbers in slips so they didn't have to pay. I mentioned this to managers who removed it immediately but the hallway wasn't cleaned for 24 hours. There was also a homeless gentleman who made himself comfortable in the lobby chair in a daily basis. Not what you want to see upon arrival each time.More</t>
   </si>
   <si>
-    <t>lightzoom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r471396067-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -423,9 +423,6 @@
     <t>We stayed at the hotel just for a night and it was a good selection. No issues to complain. Check in was a breeze.The room quality was very good, nice and spacious. We slept well even though it was close to the freeway. And a bit tricky at first getting into the hotel when using a gps device.We will use again when next in the area.Thank you</t>
   </si>
   <si>
-    <t>Justkim11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r462124740-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>I travel often for business but had never stayed at a Candlewood property. The price when I booked could not be beat. It is definitely different staying in an "extended stay" type hotel, but I am finding that the perks definitely outweigh the deficits when you stay for a week at a time! Chelsea greeted me at the front desk when I arrived and gave me a guided tour on the property. She has been at the desk several nights when I return from work and is always upbeat, kind, and completely helpful. The showers have decent pressure and the convenience of a stove, microwave, (free) wifi, and a mid size refrigerator all add up to me coming back for all of my extended stay needs in the Dallas area.More</t>
   </si>
   <si>
-    <t>Kelly F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r445035169-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -474,9 +468,6 @@
     <t>The lobby is the first impression of a hotel.  I was greeted by someone's dinner trash and a dead bug.  The front desk clerk was not busy and sitting in her chair.  I wanted to turn away and stay somewhere else.More</t>
   </si>
   <si>
-    <t>brucemsn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r443639429-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,9 +486,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Johnny G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r441507709-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -513,9 +501,6 @@
     <t xml:space="preserve">Stayed for an overnight layover. Pleasantly surprised. Very nice Candlewood Suites...in my opinion, the best out of the Candlewood Suites I've stayed at. Nicely decorated, room was in great shape. The front desk clerks were were very friendly and helpful. It was refreshing to be treated so well late at night and early in the morning. </t>
   </si>
   <si>
-    <t>Jim R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r435323007-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,9 +522,6 @@
     <t>While having a master bathroom remodeling underway, I needed a break from the mess and noise. I chose Candlewood from previous stays in a different cities. The staff was wonderful, understood my situation and got me a nice room quickly without a reservation. My particular room was an efficiency suite. It was spotless clean, the bath linens seemed to be nearly new if not new. A full size refrigerator, dishwasher, microwave, coffee pot, plus plenty of cooking utensils and place settings were available. The bed was very comfortable and the sheets were of better quality. My stay was a Fri-Sun, the property seemed full, but it was very quiet all weekend. The location is very near I635 and US 75, so access is easy. Parking is very safe, as is the area in my opinion. I may not need to stay away again before my construction is finished, but will certainly choose this location again if I do.More</t>
   </si>
   <si>
-    <t>Julie A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r420566539-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -558,9 +540,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>MarieJohnMoonen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r392665796-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -579,9 +558,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Virginia S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r385121226-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -597,9 +573,6 @@
     <t>I moved here for a month while recovering from surgery. If you need a place to stay for a long time, Candlewood Suites is the place to be. Clean, neat, and oh-so-helpful staff.  Nice room, full size fridge with freezer, microwave, dishwasher, coffeemaker - what else could you need? Also, Shipt will deliver groceries directly to your door here so you don't have to live on pizza. Staff was very responsive to my requests and even swapped out the DVD player.  Can't say enough how great this place is; they even help me with transportation to &amp; from work.</t>
   </si>
   <si>
-    <t>alwaad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r377346060-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -618,9 +591,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>SRHendrix</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r365272094-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -639,9 +609,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Graciela M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r362160053-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,9 +624,6 @@
     <t>Everyone was so nice to us. Our room was really nice clean and the price was not at all bad. Also it is located in a good part of town with easy access to the freeway which was a plus for me. I really enjoyed my stay. I would recommend.</t>
   </si>
   <si>
-    <t>marleney</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r354448102-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -678,9 +642,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Karlin A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r340188740-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -699,9 +660,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>James M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r336744122-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -723,9 +681,6 @@
     <t>This hotel is structured for extended stays.  However, it is great for overnight as well.  In town for a funeral, I planned to be here a few days.  I chose a room with a kitchen area.  I had everything I needed and actually things I did not think to bring.  Everyone during my stay was extremely nice and accommodating.  The room was clean and quiet.  I actually slept better than I had the previous week at home.  :)    They have a lending library with books, videos, games and more.  I really felt like a guest in a home, not a customer in a hotel.  There were several restaurants and a grocery store close by.  I really don't have anything negative to say.  This difficult time could have been more miserable in the wrong hotel.  I'm glad I chose this one!!More</t>
   </si>
   <si>
-    <t>Oscar R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r328991359-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,9 +699,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>ROBERT L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r320954085-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -771,9 +723,6 @@
     <t>We travel all the time and at this location we picked because it had hard access and not easy to get to. They advertise security monitored 24/7 at entrance and all over the place. was there 4 weeks of a 10 week stay and they only days we left site to visit our son for 3 days, our trailer was stolen, felt good to know they had video of theft right!!!!  wrong, someone cut my lock and was able to hook up to me trailer hitch that I had special made and is a smaller than standard hitch, well bolt cutters cut pock and stole it only while I was gone. Police report, check, asked for copy of video for cops, none !! filed with their insurance, they denied claim, Candlewood suites stated that they could not see my trailer o that day because camera did not reach that far. I had $ about 4-$5000 stolen inclosed lock trailer. They did noting . Why advertise security 24/7 when that is a false statement.  Do not stay their, no security,  other claims on theft or break ins at this location even inside state no camera working at time of theft.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r310944346-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -801,9 +750,6 @@
     <t>I have no complaints this was a nice room quiet and clean. It had a refrigerator microwave and a cooktop DVD player in the room so it had lots of amenities it would be really nice if you were staying the night because of all that. We would stay here againMore</t>
   </si>
   <si>
-    <t>Apert</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r309824708-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -822,9 +768,6 @@
     <t>Our usual hotel was full so we ended up getting a room here for one night. We were worried because the Candlewood we stayed at off 35 wasn't nice and in a questionable area. This one you can see from the freeway. It's right at 635 and greenville but very hard to find the entrance. Best was to get there is exit greenville go north and turn left at the first light past the freeway. It does back up to a cemetery that you have to drive through to get to the entrance.Despite those 2 issues. .the only other were some freeway noise at night.The room was amazing..newly remodled. Beautiful. Comfy bed and nice towels. Free laundry. More</t>
   </si>
   <si>
-    <t>Christy R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r307816160-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -849,9 +792,6 @@
     <t>First i had a hard time checking in. The card tht i paid with didnt hv my name on it but its how i paid for the room so she asked for i.d which is normal rt? well, after i showed it to her she asked for an additional card to hold $25???? So we did....i didnt get it. It was way too much to go through only to FINALLY get in the room and the toilet was dirty with the "its clean toilet seal" on it. (Deep sigh)...yes it was gross.More</t>
   </si>
   <si>
-    <t>Kim S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r295150438-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -870,9 +810,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Suginami</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r292263042-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -891,9 +828,6 @@
     <t>This is one of the best hotel experiences my family has had. I have never experienced such a positive hotel culture. The staff were exceedingly courteous and helpful and seemed to really enjoy their jobs. Each room has a kitchenette, which is one of the reasons we chose the hotel, and the hotel provided complimentary cooking utensils and other kitchen items. The hotel could have easily taken advantage of the guests and charged for use of these items, but didn't. To the contrary,  if you needed something that was not provided, you could borrow it from the lending locker. There is even an outdoor grill and we barbecued one night, which was really fun. There is a small shop that is run on the honor system. You can purchase food and sundries and fill out a form for later billing. That system of trust is something we have never encountered before. I would not hesitate to recommend Candlewood Suites and look forward to our next stay.More</t>
   </si>
   <si>
-    <t>Vinod W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r274509633-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -912,9 +846,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>noproblemSetx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r271818792-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -933,9 +864,6 @@
     <t>This is out 3 time staying at a Candlewood Suite brand. The Dallas Park Central lived up to the standard I've come to expect. We were warmly greeted at check in. The building exterior &amp; interior appears well maintained. Agreeable it was difficult to locate the entrance and drove around the block to get in.I was pleased with the updated décor, the bed was comfortable. The bathroom was a decent size and clean. The kitchen adequately stocked with dishware for  2 people. Impressed with the Lending Locker where you may borrow items like a blender, slow cooker &amp; DVD.We were in our suite about 10 minutes, when we got a call from the front desk, checking to make sure we everything was in order. The two people at the front desk were very pleasant and struck up a conversation with us.More</t>
   </si>
   <si>
-    <t>Michael B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r268206426-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -963,9 +891,6 @@
     <t>I've stayed in Candlewood Suites all over the country. This location isn't the best, it's right next to a cemetery. To get into the hotel, you have to turn into a street almost two blocks away, and the address doesn't match up at all to the turn in you have to make.  If you miss is, good luck!  You'll be driving another 5-8 minutes circling back.  My room on the first floor just outside of the office was located just downhill from a major road through town. Looking out the window you're staring at the tires of the cars zooming by. The six nights I was there I kept thinking that one of these nights a car is going to come crashing through the window. Also, as a Platinum Elite I was hoping for an upgrade from the studio. Even if they didn't offer me a free upgrade, I would have paid for it. They just said, "sorry, we have a lot of long-term guests." As far as the trash goes - they leave a rolling dumpster in the hallway AT ALL TIMES. Every time I opened my door I got to see (and smell) that rolling garbage pile.More</t>
   </si>
   <si>
-    <t>Tish L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r262767750-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -984,9 +909,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>joel b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r255691291-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1005,9 +927,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Melanie G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r253059131-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1023,9 +942,6 @@
     <t xml:space="preserve">I stayed here for the past 3 months while on a work assignment in Dallas. Convenient location and wonderful and helpful staff. Rooms and building very clean and safe. Special recognition to Senedu, Dois, Taylor and Christie for making my stay great. Having onsite free laundry a plus. Would definitely stay here again any time! </t>
   </si>
   <si>
-    <t>mugmarine</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r251538267-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1041,9 +957,6 @@
     <t>Stayed here on business, very clean and great place for the money! Id reccommend this place for sure! Clean and great loacation. I will be back soon! Nice folks and best place in the area for business!</t>
   </si>
   <si>
-    <t>GerardoFoodie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r249233350-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1062,9 +975,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>QueenT5456</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r245563581-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1086,9 +996,6 @@
     <t>I stayed at this hotel a couple of years ago for my birthday.  I chose to visit Dallas again this year as a shopping trip for my birthday.  I was well pleased with the hotel.  I had a huge two room suite.  Unlike a lot of other hotels where I've stayed the rooms in this hotel are well lit.  There is plenty of lighting in the bathroom for applying makeup.  As a matter of fact the whole suite has plenty of lighting which I really appreciate.  The dining area was equipped well.  The room was nice and clean and the bed very comfortable.The Candlewood Cupboard was well stocked.  Even though I did not use the fitness center it looked very nice.Needless to say, this is my go to place to stay when in the area.More</t>
   </si>
   <si>
-    <t>David B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r243644612-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1107,9 +1014,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>ccbbb23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r241164553-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1128,9 +1032,6 @@
     <t>This place is excellent! We have stayed at many 5 star locations throughout the world, yet this place, for its price, is definitely 5 star! The location is very safe; its location is somewhat remote even though it is in the middle of everywhere. The environment is very clean. The room was squeaky clean. The offerings were complete and thorough: snacks, supplies, workout, BBQ area, thorough parking, lending library, lending DVD library, lending game selection, lending equipment, .....My wife has asthma, and the non-smoking room was completely smoke free. The linen, sheets and towels, were very clean and had no powerful odors.But what puts this place on top of the top is the staff. Senedu made certain everything was perfect. I wish every hotel and inn had staff that worked so hard to make one feel so comfortable.More</t>
   </si>
   <si>
-    <t>ffapiggirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r231893579-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1152,9 +1053,6 @@
     <t>it was close to 10 pm when i arrived for check in. the lady at the front desk was amazing. she gave my list of places to eat that were still open. the room was so pretty. VERY clean, they even had taken the time to clean around the back side of the toilet. this normally is missed. a reasonable pet deposit. had everything i thought i would need. my only complaint was there was not a pump hand soap. It took me being there 2 nights to come up with that complaint. the water pressure was good, and the water got warm very fast. the wifi could be a bit spotty but that was during pike hours of use. i will book this hotel again on my next stay. the sheets were soft, and they gave me at least 5 pillows. house keeping comes in once a week, for long stays. so you have to ask the desk for towels. there is a grill, and you can borrow the tools to use it. even with them saying i might hear them remodeling i never heard much from the other rooms. i stayed on the first floor. i was right in the middle of both exits. I felt more at home here then even at my apartment. i will be back.More</t>
   </si>
   <si>
-    <t>JWC75604</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r224172985-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1176,9 +1074,6 @@
     <t>I had stayed at this hotel several years ago, but it has been renovated and redecorated and has the appearance of a more expensive place. There were enough pans and utensils for me to cook a dinner for two. I used the dishwasher and the stove and both worked very well. The bed was comfortable and there were two chairs and a counter low enough to use for dining. The room was quiet, the wifi and plug in internet access both worked well. There was no smell to the room and all the amenities, such as soap, dishwashing liquid and powder for the dishwasher and paper towel were present and new.  I did book online at the hotel website, so did not get the best price, but have no complaints. I will stay here again, when I am in the area.More</t>
   </si>
   <si>
-    <t>Jen K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r220695802-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1194,9 +1089,6 @@
     <t>We booked online for a very good price. The rooms were clean with lots of features.  The only thi g is that it can be a little confusing to find but that's the only complaint.  The staff was very friendly and we ended up having a bad day and lost our keys. They let us stay until the locksmith arrived with no extra charge. They really helped us out! I would Definitely stay here again!</t>
   </si>
   <si>
-    <t>JLS_Australia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r209826701-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1218,9 +1110,6 @@
     <t>I only stayed one night but it was a great place. My room was large with a wrap around desk along one wall with a kitchen (including diahwasher, full size fridge, microwave and hot plates) also. It was only a 15 minute drive to down Dallas.The hotel also offers free wifi, free parking and free laundry facilities (do ur washing early,  from 5pm everyone has the same idea) and a small convenient store.  Otherwise there was a few restaurants on both sides of the hotel.The only think I found frustrating was the entrance.  You need to turn left at Amberton parkway road with the cemetery on the corner. There was no mention of this on their website or on my hotel voucher.More</t>
   </si>
   <si>
-    <t>Carla U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r209403177-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1236,9 +1125,6 @@
     <t xml:space="preserve">I stayed at this hotel for a while and it is a clean and safe pet friendly hotel.  Staff is great, there is no noises or cigaret smell in the room or hallways. The only thing is that the rooms are a little too small for two and there is only one chair on it. However,  I will definitely recommend it!  </t>
   </si>
   <si>
-    <t>CMcCollum2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r208593652-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1263,9 +1149,6 @@
     <t>no smoking room smells like cigarette smoke.  Getting a headache! UGH!  I called to verify that this  was a no smoking room and front desk informed that it was no smoking, but that the entire floor above me is smoking!  Don't know if the smoke from upstairs is seeping into my room or not, but I do smell cigarette smoke.  When I arrived there was a bad smell like sewage or something in the first floor (main floor) of the hotel. :(More</t>
   </si>
   <si>
-    <t>Kate T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r207543224-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1284,9 +1167,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>seaski42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r205982946-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1329,9 +1209,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>David P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r199666858-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1350,9 +1227,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>SWVagabond</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r199296232-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1380,9 +1254,6 @@
     <t>Although this facility is made for extended stays, we stayed for just one night. Service was excellent. The rooms were roomy and clean with ample desk space for the business traveler.Unfortunately, we were given a room on the freeway side of the building at street level. Throughout the night the traffic noise was just shy of unbearable.More</t>
   </si>
   <si>
-    <t>uli1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r196283170-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1398,9 +1269,6 @@
     <t>Christie Fuqua White and her staff made my stay a memorable one. Smiles and happiness greet you the time you enter this Hotel and it carries through the whole stay. After a terrible check-in  at the Candelwood suites in Texarkana this stay has restored my enthusiasm for this chain. the renovation is absolutely beautiful and comfortable . Huge fridge w ice-maker and a dishwasher and a huge LED TV !!!!!!! This might be bad for business as you don't feel like leaving the room.. 12Mbps lightning fast internet  Highly recommended</t>
   </si>
   <si>
-    <t>WeLikeTravellingALot</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r193855303-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1419,9 +1287,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Margie B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r190763092-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1443,9 +1308,6 @@
     <t>The place is clean and new and modern. The staff is accommodating in every way. Everything I asked for or needed was provided immediately. The rate was great. The free laundry service and "honor system" marketplace were added conveniences I never expected. I have never been more impressed with a hotel in my 30 years on the road. I go out of my way now to stay at this brand in different states because of the  exceptional experience  with staff and management at the Dallas location. The bed quality was excellent also, and I always had a great sleep-rare in a hotel. So great to see a Company actually executing great customer service these days!More</t>
   </si>
   <si>
-    <t>Tahiri1321</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r185408933-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1461,9 +1323,6 @@
     <t>This is a basic hotel to stay for one or more nights, if you're not looking for luxury and will just use it to spend the night. The staff was very polite. Very well located. Would stay there again in the future.</t>
   </si>
   <si>
-    <t>Shannon R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r181887296-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1485,9 +1344,6 @@
     <t>I booked this hotel and got a great rate.  I was driving up from Houston and knew that I was going to be extremely late checking in.  I called and let them know.  When I got to the hotel, the front desk was wonderful.  I was coming up to check out the state fair and to spend a bit of time in Dallas and he gave me some great suggestions and ideas.  My suite was great, very pretty, modern and the bed was extremely comfortable.  The bathroom was VERY clean.  I liked having a kitchenette given I had brought some water and stuff to take to the fair so it was nice to freeze a few bottles.  The location right off LBJ was great, however, like one of the other reviews said, getting in and out and the signage is a bit odd.  I was a bit leery that my room was on the first floor, but I felt extremely safe and comfortable.  This hotel would be great for a couple, business traveler or probably a solo traveler.  I am not sure its set up really for more then 1 or 2 people.  I stayed 2 nights and would certainly stay here again.More</t>
   </si>
   <si>
-    <t>Keya T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r181694889-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1503,9 +1359,6 @@
     <t>I was a little leery about staying in a 2 star hotel but much to my surprise, my room was updated and clean.  I took advantage of the kitchen and the DVD.  I would stay there again if traveling alone.  The only downsides are: no daily maid service and only one bed.  I'm traveling to Dallas again next month but had to book another hotel because I'm traveling with a friend and need an additional bed.</t>
   </si>
   <si>
-    <t>dagongster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r181014589-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1530,9 +1383,6 @@
     <t>Had a one-night stay here over the weekend. The room itself looked renovated and was better than I expected. However, there were a few things that made me wish I booked elsewhere.1. The entrance to the hotel is deceiving. The official address is on Greenville, but all GPS devices won't know that you actually have to turn in on Amberton. There is no direct entrance off Greenville, and definitely none on LBJ. If you miss that, you'll end up making a big circle. It's not a huge deal, but decently inconvenient.2. There is no business center here, so if you need to use a computer, you have to use the one at the front desk. Even worse is that the internet speed is e...x...t...r...e...m...e...l...y... slow. Think dial-up-from-1995 slow. It was amazing, and terrible.3. The gym and "market" areas were pretty much in one room, which is a bit awkward. Also, the gym is poorly equipped.Beyond that, the bed was okay (not uncomfortable, not super comfortable), and the water pressure was pretty weak. Toiletries are handed out at check-in, and the shampoo/conditioner are in hard-to-open pouches instead of bottles.I got a really good rate so I guess I shouldn't complain too much. Still, if only everything matched the quality of the room renovation itself, then this could be a solid hotel choice.More</t>
   </si>
   <si>
-    <t>Monica M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r178362485-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1560,9 +1410,6 @@
     <t>I booked thru Priceline and ended up with a hotel that was out of rooms. So Priceline had to find me another hotel. I ended up at Candlewood Suites off Greenville Ave. I wasn't prepared for this hotel, seeing as my budget wasn't prepared to pay for incidentals. I am a member of the rewards program. Seeing how it was booked thru pricline I wasn't able to receive any points for my stay. Upon check in I told the woman at the desk, that I only had a little bit of cash at that time. That I could pay for incidentals later in the evening. No they had to have it then. Then I aske dif they could just turn the incidentals off. Which some hotels can and will. They all can if they want to.Again asked and harassed about documentation concerning my disability. I travel with my service animal and know that by Law .That there is no documentation to show. However there are certificates of completion by a trainier. But there is no official document given by our Government. In a nut shell. The property it self was nice and my room was comfortable. The management and staff wasn't really inviting and welcoming. Thats' it.More</t>
   </si>
   <si>
-    <t>FREQUENTSTAY2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r171925489-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1584,9 +1431,6 @@
     <t>As a person who works from home, I wanted to get away for father's day by myself in which the family supported my decision. As a result I wanted to stay in at a hotel that would be relaxing and peaceful. I rarely stay at a Candlewood Suites property (some not so nice experience), but the pricing and location met my last minute need. I must admit, I was little more than hesitant. But Wow! My expectation of this property was exceeded! I briefly left the property only once during my stay. The contemporary look and feel of this property was outstanding. The bed was sooooooo (misspelled on purpose) comfortable. The ambiance of the room really contributed to the moment of my reading the wonderful father's day cards from my family. Last but not least, the staff was wonderful. Dewana was so professional and pleasant. I highly recommend staying at this property.  The only negative: It is hard to find, signage visibility is an issue.More</t>
   </si>
   <si>
-    <t>David L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r171441171-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1602,9 +1446,6 @@
     <t>You wonder if you are really at the hotel when you drive up.  It looks like you are going in the back door.  This must be a high crime area because you have to ring a buzzer to contact the front desk.  Everything was locked up tight in the middle of the day.  The room was nice, but the fan on the AC never shut off even when it reached the correct temperature.  Most hotels of this caliber provide breakfast in the morning.  Not this place.  Unless nothing else is available will not stay here again.  Many better options in the Dallas area.</t>
   </si>
   <si>
-    <t>willdev</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r169991584-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1626,9 +1467,6 @@
     <t>I travel internationally, staying in all types of hotels; from 3 star european BBs to 6 star Intercontinental hotels. And this is one of my favorite properties at which to stay.The staff, from front desk to back office are some of the best that I have experienced. In fact, they put a lot of the 5-6 star properties to shame.  Considerate, courteous, proactive to my needs, they go the extra mile to provide the best experience that they can.I have been staying here on and off since 2010, and I have seen CWS build an exceptional property and team.  Kudos to her.  Every time, my room is clean, bed is clean, amenities fully functional.More</t>
   </si>
   <si>
-    <t>Salsamaker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r162315722-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1656,9 +1494,6 @@
     <t>We used this hotel as we needed to be close to the medical facility but found it was the worst possible place to go. Huge roach under the dishwasher, quarter sized spider in the bathroom. Everything very sticky and old decor, need to clean the carpets and upholstery. Daughter stayed on the pull out couch, I think she had the more comfortable mattress although she did have a very stained blanket as well as stained curtains. Sounded like we were sleeping in the pits at the raceway, now we know why they gave us ONE PAIR of ear plugs. Did like the kitchen set up, huge pantry, large frig, no oven but that was okay, they have two grills outside to use. The hallways smelled like cigarette smoke, in a non-smoking hotel. Had a creeper in the laundry room trying to hold conversations with the women who came in. Wondering if he was a homeless drunk, slurred his words and was still in there at 0300!The icing on the cake was they charged my debit card once but also held another $329 for a few days AFTER they charged my card in memo mode. Had to have my bank talk to them to make them release the funds back to my account! Would NOT use them ever again, would rather sleep in my car in a hospital parking lot!More</t>
   </si>
   <si>
-    <t>73Henry</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r155802513-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1686,9 +1521,6 @@
     <t>The room looked nice upon arrival. Then morning came and I could see what my room really looked like. The bed sheets were disgusting. The pillows were covered numerous times with separate pillow cases and not washed. There were drool stains soaking threw layers and layers of cases. A huge yellow stain over the edge of one of the pillows. It had been covered with SIX different cases. I stripped the entire bed to uncover hair on the pad covering the mattress. There were dark black hairs everywhere. I requested a vacuum to clean the room myself. I bought several sanitizing agents to clean the restroom and anything else I could touch. The carpet had toe nail clippings left on the floor. The kitchen utensils were dirty and that was the first thing I noticed. Thank The Lord that this place has all the HBOs and new bathrooms, because if it didn't, it would be over priced and totally not worth staying. Not to mention its on the East side of hwy 75 and everything is NOT as nice on that side of the hwy,More</t>
   </si>
   <si>
-    <t>ATLGAPeach</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r151685738-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1710,9 +1542,6 @@
     <t>This hotel is conveniently located in Dallas with easy access to the Galleria Mall which is not too far away. The airport is about a 25-30 minute drive without traffic. You can get to most places in Dallas in less than 20 minutes. The staff here are very friendly and provide wonderful customer service. Everyone was really nice and helpful from the front desk to housekeeping.The rooms have been renovated recently and have nice flat screen TVs with remodeled bath/kitchen. There is a restland nearby across the way in the back, but didn't bother me at all. If you are the spooky type ask for a front facing room that has the street view.The hotel is right by the freeway so this is a bonus for quick and easy access to get to wherever you are going quickly. There are several chain restaurants in the immediate vicinity. I would classify the area as business/industrial/residential so it's a pretty quiet area overall and not too far away from the action of Uptown.More</t>
   </si>
   <si>
-    <t>Judy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r139732899-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1740,9 +1569,6 @@
     <t>We needed a hotel close to a Medical facility where we were having tests done, and Candlewood was their suggestion.  We have stayed at some very nice hotels over the years, but none with a staff as considerate and kind as Candlewood.  They advertise weekly room cleaning, but at the end of each grueling day at the hospital, our room was cleaned and beds were made.  It was great as we had to leave the hotel at 6a.m. each day, and not return until late afternoon.Mind you, this is not the Ritz, but with a superior comfort level, convenience and lovely people, it made an unpleasant visit a nice place to come home to.  I should have taken names, because everyone was so nice, but the first night there, David, was a huge help in helping us get settled.  Thank you David and everyone at Candlewood for making out experience way better than expected.More</t>
   </si>
   <si>
-    <t>Dheeraj S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r136421425-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1764,9 +1590,6 @@
     <t>I stayed in this hotel from Nov'11 till March'12 with my wife and 2 year old son. The place was renovated during this period and it was a bit noisy. But thats was very well managed by the hotel staff. The new interior's are neat and the kitchen is very good.  The best part of this hotel is its very friendly and a caring staff. They will make you feel very comfortable and at home. The General Manager ( Christie ) is very nice lady and extremely professional and very customer focused. She is supported by a equally friendly staff (Dewana. Kim Moreland Jr from the front desk).  The only negative about this hotel is, it is facing a Restland..(so those folks who are scared of graves and ghost, opt for road facing rooms rather than the parking :).I addition if you plan to stay for a longer duration (for over 2 months) conat the hotesl sales director ( Mercedes) . She may give you a good deal. ( i got a very good rate :) )I am presently staying in another Candlewood Suites hotel in Irving and I can comapre ans say that Candlewood Suites , Green ville avenue location and 100% time better than this one.The people who work in the hotel makes the difference !I would highly recommend this hotel ...excellent !!Dheeraj SharmaMore</t>
   </si>
   <si>
-    <t>Mur018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r126016358-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1785,9 +1608,6 @@
     <t>My wife and I were needing to stay in this area and had heard that this hotel had just went through a major renovation. Boy have they! The place looks like a new hotel! You cant beat it for the money. Plus you get a kitchen to boot. The decor and colors are great. All the staff were very helpful and friendly. The only thing missing are the flatscreen t.v.'s. And they should be installed by the end of March I was told. I would highly recomend this property. Throw in the free parking and internet and your set. They also have there cupboard where you can get a vast array of food, snacks, and items you may have forgotten. Good job Candlewood!More</t>
   </si>
   <si>
-    <t>Lisciandro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r125511851-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1815,9 +1635,6 @@
     <t>I've been at this hotel for two weeks. The suite was clean and reasonably new with a fully equipped kitchen (silverware, a few cooking tools, microwave and a full fridge) I've been very happy to cook my food myself and enjoy the intimacy of my own room.Suites are serviced once a week.Front staff is really caring and ready to help you.There's a (real) high speed wi-fi accessMy biggest complain is about noises incoming from the nearby roads. The hotel is exactly at one of the junctions of the LBJ freeway so there's traffic 24/7 and this was a little disturbing especially during the night.At the time of writing (March2012) there some renovations in progress (room decors, installation of flat TV screens, etc.).More</t>
   </si>
   <si>
-    <t>franklinmilford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r125135890-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1836,9 +1653,6 @@
     <t>The room I had was fully renovated, new everything. Modern black cabinets in bath and kitchen with glass fronts, very modern looking. Full size kitchen which is always a plus for the long stay, not eating off styrofoam every night. there are 2 main complaints for this hotel...#1 being no business center. The front desk staff will do all printing,faxing,etc.,whatever you need, but sometimes you just need a keyboard to do work. They will turn their board around so you can use it, but when they are busy this becomes an issue. No one ever complained or looked like it was an inconvenience, but you know it is. #2-the air conditioning. The maint. dept. put in 3 seperate units, but none would actually chill the room. Thank goodness it was very cold outand the windows did open allowing me to control the air! There is the standard "convenience store" cuboard which is great for soda,snacks,etc., on the honor system,along with endless coffee since there is no breakfast offered. When reno is complete I feel this place will have a little more of the upscale "luxury" feel they are hoping for in an extended stay facility. I would have no problem stayin here again when in the area. Note-if you are using GPS, it will be hard to find the first time, as driveway into facllity is one block away from address, through a giant graveyard. A great little find as...The room I had was fully renovated, new everything. Modern black cabinets in bath and kitchen with glass fronts, very modern looking. Full size kitchen which is always a plus for the long stay, not eating off styrofoam every night. there are 2 main complaints for this hotel...#1 being no business center. The front desk staff will do all printing,faxing,etc.,whatever you need, but sometimes you just need a keyboard to do work. They will turn their board around so you can use it, but when they are busy this becomes an issue. No one ever complained or looked like it was an inconvenience, but you know it is. #2-the air conditioning. The maint. dept. put in 3 seperate units, but none would actually chill the room. Thank goodness it was very cold outand the windows did open allowing me to control the air! There is the standard "convenience store" cuboard which is great for soda,snacks,etc., on the honor system,along with endless coffee since there is no breakfast offered. When reno is complete I feel this place will have a little more of the upscale "luxury" feel they are hoping for in an extended stay facility. I would have no problem stayin here again when in the area. Note-if you are using GPS, it will be hard to find the first time, as driveway into facllity is one block away from address, through a giant graveyard. A great little find as soon as the air works! Weekly maid service, so keep your room clean and it will be like a second home!!!More</t>
   </si>
   <si>
-    <t>Girlonthego2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r118089711-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1855,9 +1669,6 @@
   </si>
   <si>
     <t>September 2011</t>
-  </si>
-  <si>
-    <t>MichaelVegetarian</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109039-r48412589-Candlewood_Suites_Dallas_Park_Central-Dallas_Texas.html</t>
@@ -2380,112 +2191,100 @@
       <c r="A2" t="n">
         <v>37495</v>
       </c>
-      <c r="B2" t="n">
-        <v>124074</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37495</v>
       </c>
-      <c r="B3" t="n">
-        <v>124075</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2499,255 +2298,227 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37495</v>
       </c>
-      <c r="B4" t="n">
-        <v>22470</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37495</v>
       </c>
-      <c r="B5" t="n">
-        <v>124076</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37495</v>
       </c>
-      <c r="B6" t="n">
-        <v>124077</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>88</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37495</v>
       </c>
-      <c r="B7" t="n">
-        <v>124078</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="n">
@@ -2763,117 +2534,121 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37495</v>
       </c>
-      <c r="B8" t="n">
-        <v>124079</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37495</v>
       </c>
-      <c r="B9" t="n">
-        <v>124080</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
@@ -2889,184 +2664,168 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37495</v>
       </c>
-      <c r="B10" t="n">
-        <v>11440</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37495</v>
       </c>
-      <c r="B11" t="n">
-        <v>97583</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37495</v>
       </c>
-      <c r="B12" t="n">
-        <v>124081</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3076,7 +2835,7 @@
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -3084,54 +2843,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37495</v>
       </c>
-      <c r="B13" t="n">
-        <v>124082</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3142,118 +2897,118 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37495</v>
       </c>
-      <c r="B14" t="n">
-        <v>16761</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>149</v>
-      </c>
-      <c r="X14" t="s">
-        <v>150</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37495</v>
       </c>
-      <c r="B15" t="n">
-        <v>124083</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3267,55 +3022,47 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37495</v>
       </c>
-      <c r="B16" t="n">
-        <v>48411</v>
-      </c>
-      <c r="C16" t="s">
-        <v>159</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" t="s">
-        <v>70</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -3325,124 +3072,114 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37495</v>
       </c>
-      <c r="B17" t="n">
-        <v>602</v>
-      </c>
-      <c r="C17" t="s">
-        <v>165</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37495</v>
       </c>
-      <c r="B18" t="n">
-        <v>29725</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3456,54 +3193,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37495</v>
       </c>
-      <c r="B19" t="n">
-        <v>124084</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3523,241 +3256,231 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37495</v>
       </c>
-      <c r="B20" t="n">
-        <v>29423</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37495</v>
       </c>
-      <c r="B21" t="n">
-        <v>124085</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37495</v>
       </c>
-      <c r="B22" t="n">
-        <v>124086</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37495</v>
       </c>
-      <c r="B23" t="n">
-        <v>124087</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3771,54 +3494,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37495</v>
       </c>
-      <c r="B24" t="n">
-        <v>124088</v>
-      </c>
-      <c r="C24" t="s">
-        <v>213</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3832,121 +3551,107 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37495</v>
       </c>
-      <c r="B25" t="n">
-        <v>124089</v>
-      </c>
-      <c r="C25" t="s">
-        <v>220</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37495</v>
       </c>
-      <c r="B26" t="n">
-        <v>408</v>
-      </c>
-      <c r="C26" t="s">
-        <v>227</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3960,63 +3665,59 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37495</v>
       </c>
-      <c r="B27" t="n">
-        <v>43930</v>
-      </c>
-      <c r="C27" t="s">
-        <v>235</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -4027,51 +3728,51 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37495</v>
       </c>
-      <c r="B28" t="n">
-        <v>124090</v>
-      </c>
-      <c r="C28" t="s">
-        <v>242</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>92</v>
+      </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -4081,127 +3782,113 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>248</v>
-      </c>
-      <c r="X28" t="s">
-        <v>249</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37495</v>
       </c>
-      <c r="B29" t="n">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>258</v>
-      </c>
-      <c r="X29" t="s">
-        <v>259</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37495</v>
       </c>
-      <c r="B30" t="n">
-        <v>111963</v>
-      </c>
-      <c r="C30" t="s">
-        <v>261</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>257</v>
-      </c>
-      <c r="O30" t="s">
-        <v>62</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
@@ -4211,57 +3898,57 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>232</v>
+      </c>
+      <c r="X30" t="s">
+        <v>233</v>
+      </c>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37495</v>
       </c>
-      <c r="B31" t="n">
-        <v>124091</v>
-      </c>
-      <c r="C31" t="s">
-        <v>268</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4273,124 +3960,114 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="X31" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37495</v>
       </c>
-      <c r="B32" t="n">
-        <v>15668</v>
-      </c>
-      <c r="C32" t="s">
-        <v>277</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37495</v>
       </c>
-      <c r="B33" t="n">
-        <v>124092</v>
-      </c>
-      <c r="C33" t="s">
-        <v>284</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -4400,258 +4077,236 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>255</v>
+      </c>
+      <c r="X33" t="s">
+        <v>256</v>
+      </c>
       <c r="Y33" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37495</v>
       </c>
-      <c r="B34" t="n">
-        <v>124093</v>
-      </c>
-      <c r="C34" t="s">
-        <v>291</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37495</v>
       </c>
-      <c r="B35" t="n">
-        <v>124094</v>
-      </c>
-      <c r="C35" t="s">
-        <v>298</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>297</v>
-      </c>
-      <c r="O35" t="s">
-        <v>70</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37495</v>
       </c>
-      <c r="B36" t="n">
-        <v>967</v>
-      </c>
-      <c r="C36" t="s">
-        <v>305</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>312</v>
-      </c>
-      <c r="X36" t="s">
-        <v>313</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37495</v>
       </c>
-      <c r="B37" t="n">
-        <v>65302</v>
-      </c>
-      <c r="C37" t="s">
-        <v>315</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
       <c r="S37" t="n">
         <v>5</v>
       </c>
@@ -4665,191 +4320,185 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37495</v>
       </c>
-      <c r="B38" t="n">
-        <v>124095</v>
-      </c>
-      <c r="C38" t="s">
-        <v>322</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>288</v>
+      </c>
+      <c r="X38" t="s">
+        <v>289</v>
+      </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37495</v>
       </c>
-      <c r="B39" t="n">
-        <v>27877</v>
-      </c>
-      <c r="C39" t="s">
-        <v>329</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37495</v>
       </c>
-      <c r="B40" t="n">
-        <v>124096</v>
-      </c>
-      <c r="C40" t="s">
-        <v>335</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+      <c r="N40" t="s">
+        <v>302</v>
+      </c>
+      <c r="O40" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4860,54 +4509,50 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37495</v>
       </c>
-      <c r="B41" t="n">
-        <v>124097</v>
-      </c>
-      <c r="C41" t="s">
-        <v>341</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="L41" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4921,63 +4566,59 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37495</v>
       </c>
-      <c r="B42" t="n">
-        <v>124098</v>
-      </c>
-      <c r="C42" t="s">
-        <v>348</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="J42" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s">
-        <v>354</v>
-      </c>
-      <c r="O42" t="s">
-        <v>70</v>
-      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
         <v>5</v>
       </c>
-      <c r="Q42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
       <c r="R42" t="n">
         <v>5</v>
       </c>
-      <c r="S42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4988,128 +4629,116 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37495</v>
       </c>
-      <c r="B43" t="n">
-        <v>304</v>
-      </c>
-      <c r="C43" t="s">
-        <v>356</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="J43" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="K43" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37495</v>
       </c>
-      <c r="B44" t="n">
-        <v>124099</v>
-      </c>
-      <c r="C44" t="s">
-        <v>363</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J44" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="n">
         <v>5</v>
       </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -5120,54 +4749,50 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37495</v>
       </c>
-      <c r="B45" t="n">
-        <v>124100</v>
-      </c>
-      <c r="C45" t="s">
-        <v>370</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="J45" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="K45" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="O45" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5185,60 +4810,56 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37495</v>
       </c>
-      <c r="B46" t="n">
-        <v>124101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>378</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="J46" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="K46" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="O46" t="s">
-        <v>118</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
       <c r="S46" t="n">
         <v>5</v>
       </c>
@@ -5252,63 +4873,57 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37495</v>
       </c>
-      <c r="B47" t="n">
-        <v>47867</v>
-      </c>
-      <c r="C47" t="s">
-        <v>386</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="J47" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="K47" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>92</v>
+      </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -5319,106 +4934,104 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37495</v>
       </c>
-      <c r="B48" t="n">
-        <v>124102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>392</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="J48" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="K48" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37495</v>
       </c>
-      <c r="B49" t="n">
-        <v>124103</v>
-      </c>
-      <c r="C49" t="s">
-        <v>400</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="J49" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5429,10 +5042,10 @@
         <v>5</v>
       </c>
       <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
         <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5447,54 +5060,50 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37495</v>
       </c>
-      <c r="B50" t="n">
-        <v>124104</v>
-      </c>
-      <c r="C50" t="s">
-        <v>406</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="J50" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="K50" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="L50" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="O50" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5505,77 +5114,65 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>412</v>
-      </c>
-      <c r="X50" t="s">
-        <v>413</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37495</v>
       </c>
-      <c r="B51" t="n">
-        <v>26414</v>
-      </c>
-      <c r="C51" t="s">
-        <v>415</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="J51" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="K51" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s">
-        <v>421</v>
-      </c>
-      <c r="O51" t="s">
-        <v>70</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
         <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5583,54 +5180,50 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37495</v>
       </c>
-      <c r="B52" t="n">
-        <v>124105</v>
-      </c>
-      <c r="C52" t="s">
-        <v>422</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="J52" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="K52" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5642,13 +5235,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="X52" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="Y52" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53">
@@ -5661,53 +5254,53 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="J53" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="K53" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="L53" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="O53" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5715,137 +5308,123 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37495</v>
       </c>
-      <c r="B54" t="n">
-        <v>709</v>
-      </c>
-      <c r="C54" t="s">
-        <v>437</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="J54" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="K54" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="L54" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="O54" t="s">
-        <v>86</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>388</v>
+      </c>
+      <c r="X54" t="s">
+        <v>389</v>
+      </c>
       <c r="Y54" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37495</v>
       </c>
-      <c r="B55" t="n">
-        <v>124106</v>
-      </c>
-      <c r="C55" t="s">
-        <v>444</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="J55" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="K55" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="L55" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5854,73 +5433,65 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>451</v>
-      </c>
-      <c r="X55" t="s">
-        <v>452</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37495</v>
       </c>
-      <c r="B56" t="n">
-        <v>48416</v>
-      </c>
-      <c r="C56" t="s">
-        <v>454</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="J56" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
         <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5932,133 +5503,133 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37495</v>
       </c>
-      <c r="B57" t="n">
-        <v>124107</v>
-      </c>
-      <c r="C57" t="s">
-        <v>460</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="J57" t="s">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="K57" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>409</v>
+      </c>
+      <c r="X57" t="s">
+        <v>410</v>
+      </c>
       <c r="Y57" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37495</v>
       </c>
-      <c r="B58" t="n">
-        <v>79901</v>
-      </c>
-      <c r="C58" t="s">
-        <v>467</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="J58" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="K58" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="O58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
       <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
         <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -6070,134 +5641,122 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37495</v>
       </c>
-      <c r="B59" t="n">
-        <v>124108</v>
-      </c>
-      <c r="C59" t="s">
-        <v>475</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="J59" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="K59" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s">
-        <v>480</v>
+        <v>421</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="O59" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>4</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>480</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37495</v>
       </c>
-      <c r="B60" t="n">
-        <v>16962</v>
-      </c>
-      <c r="C60" t="s">
-        <v>481</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>482</v>
+        <v>423</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="J60" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="K60" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
       <c r="O60" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -6212,66 +5771,62 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37495</v>
       </c>
-      <c r="B61" t="n">
-        <v>124109</v>
-      </c>
-      <c r="C61" t="s">
-        <v>489</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="J61" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="K61" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>487</v>
+        <v>408</v>
       </c>
       <c r="O61" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -6283,275 +5838,255 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37495</v>
       </c>
-      <c r="B62" t="n">
-        <v>124110</v>
-      </c>
-      <c r="C62" t="s">
-        <v>495</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>497</v>
+        <v>436</v>
       </c>
       <c r="J62" t="s">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="K62" t="s">
-        <v>499</v>
+        <v>438</v>
       </c>
       <c r="L62" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="O62" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>501</v>
-      </c>
-      <c r="X62" t="s">
-        <v>502</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37495</v>
       </c>
-      <c r="B63" t="n">
-        <v>15596</v>
-      </c>
-      <c r="C63" t="s">
-        <v>504</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="J63" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
       <c r="K63" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>510</v>
+        <v>440</v>
       </c>
       <c r="O63" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>511</v>
-      </c>
-      <c r="X63" t="s">
-        <v>512</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37495</v>
       </c>
-      <c r="B64" t="n">
-        <v>124111</v>
-      </c>
-      <c r="C64" t="s">
-        <v>514</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="J64" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="K64" t="s">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="L64" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="O64" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>452</v>
+      </c>
+      <c r="X64" t="s">
+        <v>453</v>
+      </c>
       <c r="Y64" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37495</v>
       </c>
-      <c r="B65" t="n">
-        <v>5027</v>
-      </c>
-      <c r="C65" t="s">
-        <v>522</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="J65" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="K65" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="L65" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="O65" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6563,66 +6098,66 @@
         <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>461</v>
+      </c>
+      <c r="X65" t="s">
+        <v>462</v>
+      </c>
       <c r="Y65" t="s">
-        <v>527</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37495</v>
       </c>
-      <c r="B66" t="n">
-        <v>124112</v>
-      </c>
-      <c r="C66" t="s">
-        <v>528</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>529</v>
+        <v>464</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
       <c r="J66" t="s">
-        <v>531</v>
+        <v>466</v>
       </c>
       <c r="K66" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="L66" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="O66" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6631,7 +6166,7 @@
         <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -6646,354 +6181,326 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>535</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37495</v>
       </c>
-      <c r="B67" t="n">
-        <v>124113</v>
-      </c>
-      <c r="C67" t="s">
-        <v>536</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="J67" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="K67" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="L67" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>542</v>
+        <v>460</v>
       </c>
       <c r="O67" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
         <v>2</v>
       </c>
-      <c r="R67" t="n">
-        <v>1</v>
-      </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>543</v>
-      </c>
-      <c r="X67" t="s">
-        <v>544</v>
-      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>545</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37495</v>
       </c>
-      <c r="B68" t="n">
-        <v>124114</v>
-      </c>
-      <c r="C68" t="s">
-        <v>546</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>548</v>
+        <v>477</v>
       </c>
       <c r="J68" t="s">
-        <v>549</v>
+        <v>478</v>
       </c>
       <c r="K68" t="s">
-        <v>550</v>
+        <v>479</v>
       </c>
       <c r="L68" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="O68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s">
-        <v>553</v>
-      </c>
-      <c r="X68" t="s">
-        <v>554</v>
-      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>555</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37495</v>
       </c>
-      <c r="B69" t="n">
-        <v>28739</v>
-      </c>
-      <c r="C69" t="s">
-        <v>556</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="J69" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="K69" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
       <c r="L69" t="s">
-        <v>561</v>
+        <v>487</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="O69" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>553</v>
+        <v>489</v>
       </c>
       <c r="X69" t="s">
-        <v>554</v>
+        <v>490</v>
       </c>
       <c r="Y69" t="s">
-        <v>563</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37495</v>
       </c>
-      <c r="B70" t="n">
-        <v>2800</v>
-      </c>
-      <c r="C70" t="s">
-        <v>564</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>565</v>
+        <v>492</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>566</v>
+        <v>493</v>
       </c>
       <c r="J70" t="s">
-        <v>567</v>
+        <v>494</v>
       </c>
       <c r="K70" t="s">
-        <v>568</v>
+        <v>495</v>
       </c>
       <c r="L70" t="s">
-        <v>569</v>
+        <v>496</v>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>570</v>
+        <v>497</v>
       </c>
       <c r="O70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>571</v>
+        <v>498</v>
       </c>
       <c r="X70" t="s">
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Y70" t="s">
-        <v>573</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37495</v>
       </c>
-      <c r="B71" t="n">
-        <v>124115</v>
-      </c>
-      <c r="C71" t="s">
-        <v>574</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>575</v>
+        <v>501</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>576</v>
+        <v>502</v>
       </c>
       <c r="J71" t="s">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="K71" t="s">
-        <v>578</v>
+        <v>504</v>
       </c>
       <c r="L71" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>580</v>
+        <v>506</v>
       </c>
       <c r="O71" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7002,10 +6509,10 @@
         <v>5</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
@@ -7014,57 +6521,57 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
+      <c r="W71" t="s">
+        <v>498</v>
+      </c>
+      <c r="X71" t="s">
+        <v>499</v>
+      </c>
       <c r="Y71" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37495</v>
       </c>
-      <c r="B72" t="n">
-        <v>123920</v>
-      </c>
-      <c r="C72" t="s">
-        <v>582</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>583</v>
+        <v>508</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="J72" t="s">
-        <v>585</v>
+        <v>510</v>
       </c>
       <c r="K72" t="s">
-        <v>586</v>
+        <v>511</v>
       </c>
       <c r="L72" t="s">
-        <v>587</v>
+        <v>512</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="O72" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7073,7 +6580,7 @@
         <v>5</v>
       </c>
       <c r="R72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
         <v>5</v>
@@ -7086,144 +6593,132 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="X72" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="Y72" t="s">
-        <v>588</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37495</v>
       </c>
-      <c r="B73" t="n">
-        <v>124116</v>
-      </c>
-      <c r="C73" t="s">
-        <v>589</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>591</v>
+        <v>518</v>
       </c>
       <c r="J73" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
       <c r="K73" t="s">
-        <v>593</v>
+        <v>520</v>
       </c>
       <c r="L73" t="s">
-        <v>594</v>
+        <v>521</v>
       </c>
       <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>522</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
         <v>3</v>
       </c>
-      <c r="N73" t="s">
-        <v>595</v>
-      </c>
-      <c r="O73" t="s">
-        <v>54</v>
-      </c>
-      <c r="P73" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q73" t="n">
+      <c r="S73" t="n">
         <v>4</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2</v>
-      </c>
-      <c r="S73" t="n">
-        <v>5</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s">
-        <v>596</v>
-      </c>
-      <c r="X73" t="s">
-        <v>597</v>
-      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>598</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37495</v>
       </c>
-      <c r="B74" t="n">
-        <v>70965</v>
-      </c>
-      <c r="C74" t="s">
-        <v>599</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>601</v>
+        <v>525</v>
       </c>
       <c r="J74" t="s">
-        <v>602</v>
+        <v>526</v>
       </c>
       <c r="K74" t="s">
-        <v>603</v>
+        <v>527</v>
       </c>
       <c r="L74" t="s">
-        <v>604</v>
+        <v>528</v>
       </c>
       <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>522</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
         <v>4</v>
-      </c>
-      <c r="N74" t="s">
-        <v>595</v>
-      </c>
-      <c r="O74" t="s">
-        <v>54</v>
-      </c>
-      <c r="P74" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>5</v>
-      </c>
-      <c r="R74" t="n">
-        <v>3</v>
       </c>
       <c r="S74" t="n">
         <v>5</v>
@@ -7235,142 +6730,144 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
+      <c r="W74" t="s">
+        <v>498</v>
+      </c>
+      <c r="X74" t="s">
+        <v>499</v>
+      </c>
       <c r="Y74" t="s">
-        <v>605</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37495</v>
       </c>
-      <c r="B75" t="n">
-        <v>124117</v>
-      </c>
-      <c r="C75" t="s">
-        <v>606</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>607</v>
+        <v>530</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>608</v>
+        <v>531</v>
       </c>
       <c r="J75" t="s">
-        <v>609</v>
+        <v>532</v>
       </c>
       <c r="K75" t="s">
-        <v>610</v>
+        <v>533</v>
       </c>
       <c r="L75" t="s">
-        <v>611</v>
+        <v>534</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>612</v>
+        <v>535</v>
       </c>
       <c r="O75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
         <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
-      </c>
-      <c r="S75" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
+      <c r="W75" t="s">
+        <v>536</v>
+      </c>
+      <c r="X75" t="s">
+        <v>537</v>
+      </c>
       <c r="Y75" t="s">
-        <v>611</v>
+        <v>538</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37495</v>
       </c>
-      <c r="B76" t="n">
-        <v>124118</v>
-      </c>
-      <c r="C76" t="s">
-        <v>613</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>614</v>
+        <v>539</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
       <c r="J76" t="s">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="K76" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
       <c r="L76" t="s">
-        <v>618</v>
+        <v>543</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>619</v>
+        <v>535</v>
       </c>
       <c r="O76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T76" t="s"/>
       <c r="U76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -7378,7 +6875,139 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>618</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37495</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>545</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>546</v>
+      </c>
+      <c r="J77" t="s">
+        <v>547</v>
+      </c>
+      <c r="K77" t="s">
+        <v>548</v>
+      </c>
+      <c r="L77" t="s">
+        <v>549</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>550</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37495</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>551</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>552</v>
+      </c>
+      <c r="J78" t="s">
+        <v>553</v>
+      </c>
+      <c r="K78" t="s">
+        <v>554</v>
+      </c>
+      <c r="L78" t="s">
+        <v>555</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>556</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
